--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NAC5-ARIX RADIO DISTAL #1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NAC5-ARIX RADIO DISTAL #1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30EFB93-1BA3-4291-84D1-6B31C9A64642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INQUIORT" sheetId="4" r:id="rId1"/>
@@ -35,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Asus</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -156,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" shapeId="0">
+    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -178,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="311">
   <si>
     <t>CANT.</t>
   </si>
@@ -855,9 +856,6 @@
     <t>R210427-L37</t>
   </si>
   <si>
-    <t>J220504-L067</t>
-  </si>
-  <si>
     <t>25-SO-012-TA</t>
   </si>
   <si>
@@ -981,9 +979,6 @@
     <t>J230801-L025</t>
   </si>
   <si>
-    <t>J230803-L098</t>
-  </si>
-  <si>
     <t>J230314-L011</t>
   </si>
   <si>
@@ -1032,9 +1027,6 @@
     <t>J230417-L067</t>
   </si>
   <si>
-    <t>J230717-L018</t>
-  </si>
-  <si>
     <t>J230711-L056</t>
   </si>
   <si>
@@ -1117,12 +1109,15 @@
   </si>
   <si>
     <t>15% IVA</t>
+  </si>
+  <si>
+    <t>J234578-L097</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -1806,15 +1801,15 @@
   <cellStyles count="11">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="Moneda [0] 2" xfId="5"/>
-    <cellStyle name="Moneda [0] 3" xfId="4"/>
-    <cellStyle name="Moneda 2" xfId="3"/>
-    <cellStyle name="Moneda 3" xfId="8"/>
-    <cellStyle name="Moneda 4" xfId="9"/>
-    <cellStyle name="Moneda 8" xfId="7"/>
+    <cellStyle name="Moneda [0] 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Moneda [0] 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Moneda 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Moneda 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Moneda 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Moneda 8" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Normal 3" xfId="10"/>
+    <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2185,35 +2180,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:D100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="59" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="3" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="11.453125" style="3"/>
+    <col min="9" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14"/>
       <c r="B1" s="18"/>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
     </row>
-    <row r="2" spans="1:8" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="84" t="s">
@@ -2224,43 +2219,43 @@
       </c>
       <c r="E2" s="87"/>
     </row>
-    <row r="3" spans="1:8" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47"/>
       <c r="B3" s="48"/>
       <c r="C3" s="85"/>
       <c r="D3" s="49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E3" s="50"/>
     </row>
-    <row r="4" spans="1:8" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47"/>
       <c r="B4" s="48"/>
       <c r="C4" s="88" t="s">
         <v>165</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E4" s="91"/>
     </row>
-    <row r="5" spans="1:8" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38"/>
       <c r="B5" s="39"/>
       <c r="C5" s="89"/>
       <c r="D5" s="92" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E5" s="93"/>
     </row>
-    <row r="6" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
     </row>
-    <row r="7" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>97</v>
       </c>
@@ -2271,14 +2266,14 @@
       </c>
       <c r="E7" s="51"/>
     </row>
-    <row r="8" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>99</v>
       </c>
@@ -2289,7 +2284,7 @@
       </c>
       <c r="E9" s="53"/>
     </row>
-    <row r="10" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -2299,7 +2294,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="31"/>
     </row>
-    <row r="11" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="82" t="s">
         <v>166</v>
       </c>
@@ -2309,13 +2304,13 @@
         <v>167</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F11" s="57"/>
       <c r="G11" s="57"/>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -2325,7 +2320,7 @@
       <c r="G12" s="58"/>
       <c r="H12" s="32"/>
     </row>
-    <row r="13" spans="1:8" customFormat="1" ht="23" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
         <v>101</v>
       </c>
@@ -2341,7 +2336,7 @@
       <c r="G13" s="40"/>
       <c r="H13" s="32"/>
     </row>
-    <row r="14" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -2350,7 +2345,7 @@
       <c r="F14" s="59"/>
       <c r="G14" s="59"/>
     </row>
-    <row r="15" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>103</v>
       </c>
@@ -2362,7 +2357,7 @@
       <c r="E15" s="56"/>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -2371,7 +2366,7 @@
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
     </row>
-    <row r="17" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>105</v>
       </c>
@@ -2382,7 +2377,7 @@
       <c r="F17" s="20"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -2391,7 +2386,7 @@
       <c r="F18" s="61"/>
       <c r="G18" s="61"/>
     </row>
-    <row r="19" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>106</v>
       </c>
@@ -2404,7 +2399,7 @@
       <c r="F19" s="20"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:8" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="3"/>
@@ -2414,12 +2409,12 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>2</v>
@@ -2437,12 +2432,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="44" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>189</v>
@@ -2459,12 +2454,12 @@
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="44" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>190</v>
@@ -2481,7 +2476,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="44" t="s">
         <v>7</v>
       </c>
@@ -2503,7 +2498,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="43" t="s">
         <v>8</v>
       </c>
@@ -2525,7 +2520,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="44" t="s">
         <v>9</v>
       </c>
@@ -2547,7 +2542,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="44" t="s">
         <v>10</v>
       </c>
@@ -2569,7 +2564,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="43" t="s">
         <v>11</v>
       </c>
@@ -2591,12 +2586,12 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="44" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>198</v>
@@ -2613,7 +2608,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="44" t="s">
         <v>13</v>
       </c>
@@ -2635,7 +2630,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="43" t="s">
         <v>14</v>
       </c>
@@ -2657,12 +2652,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>197</v>
@@ -2679,7 +2674,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="44" t="s">
         <v>16</v>
       </c>
@@ -2701,7 +2696,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="44"/>
       <c r="B34" s="44"/>
       <c r="C34" s="7"/>
@@ -2712,7 +2707,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="43" t="s">
         <v>18</v>
       </c>
@@ -2734,7 +2729,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="44" t="s">
         <v>17</v>
       </c>
@@ -2753,12 +2748,12 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="43" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>205</v>
@@ -2775,7 +2770,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="44" t="s">
         <v>20</v>
       </c>
@@ -2797,7 +2792,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="44" t="s">
         <v>21</v>
       </c>
@@ -2819,7 +2814,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="44" t="s">
         <v>22</v>
       </c>
@@ -2841,7 +2836,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
       <c r="B41" s="42"/>
       <c r="C41" s="7"/>
@@ -2852,12 +2847,12 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="44" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>207</v>
@@ -2874,7 +2869,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="44" t="s">
         <v>24</v>
       </c>
@@ -2896,7 +2891,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="43" t="s">
         <v>25</v>
       </c>
@@ -2918,7 +2913,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="43" t="s">
         <v>26</v>
       </c>
@@ -2940,12 +2935,12 @@
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="44" t="s">
         <v>27</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>212</v>
@@ -2962,12 +2957,12 @@
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="44" t="s">
         <v>28</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>213</v>
@@ -2984,7 +2979,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="43" t="s">
         <v>29</v>
       </c>
@@ -3006,7 +3001,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="43" t="s">
         <v>30</v>
       </c>
@@ -3028,7 +3023,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="43"/>
       <c r="B50" s="43"/>
       <c r="C50" s="11"/>
@@ -3039,7 +3034,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="44" t="s">
         <v>31</v>
       </c>
@@ -3047,7 +3042,7 @@
         <v>85</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D51" s="45">
         <v>1</v>
@@ -3061,7 +3056,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="44" t="s">
         <v>32</v>
       </c>
@@ -3069,7 +3064,7 @@
         <v>86</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D52" s="45">
         <v>1</v>
@@ -3083,7 +3078,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="43" t="s">
         <v>33</v>
       </c>
@@ -3091,7 +3086,7 @@
         <v>87</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D53" s="45">
         <v>1</v>
@@ -3105,7 +3100,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="43" t="s">
         <v>34</v>
       </c>
@@ -3113,7 +3108,7 @@
         <v>88</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D54" s="45">
         <v>1</v>
@@ -3127,7 +3122,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="44" t="s">
         <v>35</v>
       </c>
@@ -3135,7 +3130,7 @@
         <v>89</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D55" s="45">
         <v>1</v>
@@ -3149,7 +3144,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="44" t="s">
         <v>36</v>
       </c>
@@ -3171,7 +3166,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="43" t="s">
         <v>37</v>
       </c>
@@ -3179,7 +3174,7 @@
         <v>91</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D57" s="45">
         <v>1</v>
@@ -3193,7 +3188,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="43" t="s">
         <v>38</v>
       </c>
@@ -3215,7 +3210,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A59" s="43"/>
       <c r="B59" s="43"/>
       <c r="C59" s="11"/>
@@ -3226,7 +3221,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="44" t="s">
         <v>39</v>
       </c>
@@ -3234,7 +3229,7 @@
         <v>92</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D60" s="10">
         <v>4</v>
@@ -3248,7 +3243,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="44" t="s">
         <v>40</v>
       </c>
@@ -3256,7 +3251,7 @@
         <v>93</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D61" s="10">
         <v>4</v>
@@ -3270,7 +3265,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="44" t="s">
         <v>41</v>
       </c>
@@ -3278,7 +3273,7 @@
         <v>219</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D62" s="10">
         <v>4</v>
@@ -3292,7 +3287,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="44"/>
       <c r="B63" s="42"/>
       <c r="C63" s="41"/>
@@ -3303,7 +3298,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="44" t="s">
         <v>42</v>
       </c>
@@ -3321,16 +3316,16 @@
         <v>66</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" ref="G64:G81" si="6">D64*F64</f>
+        <f t="shared" ref="G64:G79" si="6">D64*F64</f>
         <v>660</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>170</v>
@@ -3347,7 +3342,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="44" t="s">
         <v>44</v>
       </c>
@@ -3358,7 +3353,7 @@
         <v>171</v>
       </c>
       <c r="D66" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="2">
@@ -3366,21 +3361,21 @@
       </c>
       <c r="G66" s="2">
         <f t="shared" si="6"/>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="44" t="s">
         <v>44</v>
       </c>
       <c r="B67" s="42" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>171</v>
       </c>
       <c r="D67" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="2">
@@ -3388,43 +3383,38 @@
       </c>
       <c r="G67" s="2">
         <f t="shared" si="6"/>
-        <v>264</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="44" t="s">
         <v>44</v>
       </c>
       <c r="B68" s="42" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>171</v>
       </c>
       <c r="D68" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E68" s="8"/>
-      <c r="F68" s="2">
-        <v>66</v>
-      </c>
-      <c r="G68" s="2">
-        <f t="shared" si="6"/>
-        <v>528</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="43" t="s">
         <v>45</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>172</v>
       </c>
       <c r="D69" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="2">
@@ -3432,21 +3422,21 @@
       </c>
       <c r="G69" s="2">
         <f t="shared" si="6"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="43" t="s">
         <v>45</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>172</v>
       </c>
       <c r="D70" s="10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="2">
@@ -3454,21 +3444,21 @@
       </c>
       <c r="G70" s="2">
         <f t="shared" si="6"/>
-        <v>726</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B71" s="43" t="s">
-        <v>292</v>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="44" t="s">
+        <v>223</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D71" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="2">
@@ -3476,21 +3466,21 @@
       </c>
       <c r="G71" s="2">
         <f t="shared" si="6"/>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="44" t="s">
         <v>46</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>173</v>
       </c>
       <c r="D72" s="10">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="2">
@@ -3498,43 +3488,38 @@
       </c>
       <c r="G72" s="2">
         <f t="shared" si="6"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B73" s="44" t="s">
-        <v>288</v>
+        <v>858</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="43" t="s">
+        <v>306</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D73" s="10">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E73" s="8"/>
-      <c r="F73" s="2">
-        <v>66</v>
-      </c>
-      <c r="G73" s="2">
-        <f t="shared" si="6"/>
-        <v>858</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="43" t="s">
         <v>47</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>174</v>
       </c>
       <c r="D74" s="10">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="2">
@@ -3542,18 +3527,18 @@
       </c>
       <c r="G74" s="2">
         <f t="shared" si="6"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B75" s="43" t="s">
-        <v>289</v>
+        <v>792</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="44" t="s">
+        <v>282</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D75" s="10">
         <v>10</v>
@@ -3567,35 +3552,40 @@
         <v>660</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D76" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E76" s="8"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F76" s="2">
+        <v>66</v>
+      </c>
+      <c r="G76" s="2">
+        <f t="shared" si="6"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B77" s="44" t="s">
-        <v>285</v>
+        <v>116</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D77" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="2">
@@ -3603,21 +3593,21 @@
       </c>
       <c r="G77" s="2">
         <f t="shared" si="6"/>
-        <v>660</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B78" s="43" t="s">
-        <v>290</v>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" s="42" t="s">
+        <v>95</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D78" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="2">
@@ -3625,21 +3615,21 @@
       </c>
       <c r="G78" s="2">
         <f t="shared" si="6"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B79" s="44" t="s">
-        <v>116</v>
+        <v>51</v>
+      </c>
+      <c r="B79" s="42" t="s">
+        <v>266</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D79" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="2">
@@ -3647,76 +3637,74 @@
       </c>
       <c r="G79" s="2">
         <f t="shared" si="6"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B80" s="42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="44"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="15">
+        <v>105</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+    </row>
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D80" s="10">
-        <v>3</v>
-      </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="2">
-        <v>66</v>
-      </c>
-      <c r="G80" s="2">
-        <f t="shared" si="6"/>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B81" s="42" t="s">
-        <v>268</v>
-      </c>
       <c r="C81" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D81" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E81" s="8"/>
-      <c r="F81" s="2">
-        <v>66</v>
-      </c>
-      <c r="G81" s="2">
-        <f t="shared" si="6"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="44"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="15">
-        <v>105</v>
+      <c r="F81" s="12">
+        <v>54</v>
+      </c>
+      <c r="G81" s="12">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D82" s="10">
+        <v>5</v>
       </c>
       <c r="E82" s="8"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-    </row>
-    <row r="83" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F82" s="12">
+        <v>54</v>
+      </c>
+      <c r="G82" s="12">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B83" s="42" t="s">
-        <v>95</v>
+        <v>225</v>
+      </c>
+      <c r="B83" s="43" t="s">
+        <v>117</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D83" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="12">
@@ -3726,18 +3714,18 @@
         <v>700</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="B84" s="42" t="s">
-        <v>95</v>
+        <v>225</v>
+      </c>
+      <c r="B84" s="43" t="s">
+        <v>280</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D84" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="12">
@@ -3747,18 +3735,18 @@
         <v>700</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="B85" s="43" t="s">
-        <v>117</v>
+      <c r="B85" s="44" t="s">
+        <v>221</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D85" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="12">
@@ -3768,18 +3756,18 @@
         <v>700</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="44" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B86" s="43" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D86" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="12">
@@ -3789,15 +3777,15 @@
         <v>700</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="44" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B87" s="44" t="s">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D87" s="10">
         <v>10</v>
@@ -3810,15 +3798,15 @@
         <v>700</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="44" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D88" s="10">
         <v>10</v>
@@ -3831,18 +3819,18 @@
         <v>700</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D89" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="12">
@@ -3852,18 +3840,18 @@
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="B90" s="43" t="s">
-        <v>119</v>
+        <v>54</v>
+      </c>
+      <c r="B90" s="42" t="s">
+        <v>96</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D90" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="12">
@@ -3873,15 +3861,15 @@
         <v>700</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="B91" s="44" t="s">
-        <v>120</v>
+        <v>55</v>
+      </c>
+      <c r="B91" s="42" t="s">
+        <v>96</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D91" s="10">
         <v>5</v>
@@ -3894,68 +3882,70 @@
         <v>700</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B92" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D92" s="10">
-        <v>5</v>
+    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="44"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="15">
+        <v>70</v>
       </c>
       <c r="E92" s="8"/>
-      <c r="F92" s="12">
-        <v>54</v>
-      </c>
-      <c r="G92" s="12">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B93" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>188</v>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+    </row>
+    <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A93" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="D93" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E93" s="8"/>
-      <c r="F93" s="12">
-        <v>54</v>
-      </c>
-      <c r="G93" s="12">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="44"/>
-      <c r="B94" s="42"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="15">
-        <v>70</v>
+      <c r="F93" s="13">
+        <v>66</v>
+      </c>
+      <c r="G93" s="13">
+        <f t="shared" ref="G93:G97" si="7">D93*F93</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A94" s="78" t="s">
+        <v>243</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D94" s="10">
+        <v>3</v>
       </c>
       <c r="E94" s="8"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-    </row>
-    <row r="95" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F94" s="13">
+        <v>66</v>
+      </c>
+      <c r="G94" s="13">
+        <f t="shared" si="7"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="78" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D95" s="10">
         <v>3</v>
@@ -3965,19 +3955,19 @@
         <v>66</v>
       </c>
       <c r="G95" s="13">
-        <f t="shared" ref="G95:G99" si="7">D95*F95</f>
+        <f t="shared" si="7"/>
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="78" t="s">
         <v>244</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D96" s="10">
         <v>3</v>
@@ -3991,15 +3981,15 @@
         <v>198</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="78" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D97" s="10">
         <v>3</v>
@@ -4013,864 +4003,820 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="78" t="s">
-        <v>245</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D98" s="10">
-        <v>3</v>
+    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="78"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="15">
+        <v>15</v>
       </c>
       <c r="E98" s="8"/>
-      <c r="F98" s="13">
-        <v>66</v>
-      </c>
-      <c r="G98" s="13">
-        <f t="shared" si="7"/>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="78" t="s">
-        <v>252</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D99" s="10">
-        <v>3</v>
-      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" s="13"/>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="79" t="s">
+        <v>290</v>
+      </c>
+      <c r="B99" s="6">
+        <v>210127379</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D99" s="15"/>
       <c r="E99" s="8"/>
-      <c r="F99" s="13">
-        <v>66</v>
-      </c>
-      <c r="G99" s="13">
-        <f t="shared" si="7"/>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="78"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="15">
-        <v>15</v>
-      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="13"/>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="79" t="s">
+        <v>292</v>
+      </c>
+      <c r="B100" s="6">
+        <v>201226140</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D100" s="15"/>
       <c r="E100" s="8"/>
       <c r="F100" s="2"/>
       <c r="G100" s="13"/>
     </row>
-    <row r="101" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="79" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B101" s="6">
-        <v>210127379</v>
+        <v>2306000619</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D101" s="15"/>
       <c r="E101" s="8"/>
       <c r="F101" s="2"/>
       <c r="G101" s="13"/>
     </row>
-    <row r="102" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="79" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B102" s="6">
-        <v>201226140</v>
+        <v>2306000620</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D102" s="15"/>
       <c r="E102" s="8"/>
       <c r="F102" s="2"/>
       <c r="G102" s="13"/>
     </row>
-    <row r="103" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="79" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B103" s="6">
-        <v>2306000619</v>
+        <v>2306000621</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D103" s="15"/>
       <c r="E103" s="8"/>
       <c r="F103" s="2"/>
       <c r="G103" s="13"/>
     </row>
-    <row r="104" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="79" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B104" s="6">
-        <v>2306000620</v>
+        <v>2306000622</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D104" s="15"/>
       <c r="E104" s="8"/>
       <c r="F104" s="2"/>
       <c r="G104" s="13"/>
     </row>
-    <row r="105" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="79" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B105" s="6">
-        <v>2306000621</v>
+        <v>210127384</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="8"/>
       <c r="F105" s="2"/>
       <c r="G105" s="13"/>
     </row>
-    <row r="106" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="79" t="s">
-        <v>303</v>
-      </c>
-      <c r="B106" s="6">
-        <v>2306000622</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="D106" s="15"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="13"/>
-    </row>
-    <row r="107" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="79" t="s">
-        <v>305</v>
-      </c>
-      <c r="B107" s="6">
-        <v>210127384</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D107" s="15"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="13"/>
-    </row>
-    <row r="108" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="17"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="G106" s="76">
+        <f>SUM(G22:G98)</f>
+        <v>46090</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="17"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="77" t="s">
+        <v>309</v>
+      </c>
+      <c r="G107" s="76">
+        <f>+G106*0.15</f>
+        <v>6913.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
+      <c r="D108" s="17" t="s">
+        <v>160</v>
+      </c>
       <c r="E108" s="17"/>
       <c r="F108" s="75" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G108" s="76">
-        <f>SUM(G22:G100)</f>
-        <v>46156</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="17"/>
+        <f>+G106+G107</f>
+        <v>53003.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="9"/>
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="77" t="s">
-        <v>312</v>
-      </c>
-      <c r="G109" s="76">
-        <f>+G108*0.15</f>
-        <v>6923.4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="17"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="9"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
-      <c r="D110" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="E110" s="17"/>
-      <c r="F110" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="G110" s="76">
-        <f>+G108+G109</f>
-        <v>53079.4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="9"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="1"/>
-    </row>
-    <row r="112" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="9"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="1"/>
-    </row>
-    <row r="113" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="4"/>
-      <c r="B113" s="80" t="s">
+      <c r="D110" s="17"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="80" t="s">
         <v>220</v>
       </c>
-      <c r="C113" s="81"/>
-      <c r="D113" s="81"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-    </row>
-    <row r="114" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B114" s="80" t="s">
+      <c r="C111" s="81"/>
+      <c r="D111" s="81"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B112" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="C114" s="81"/>
-      <c r="D114" s="81"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-    </row>
-    <row r="115" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B115" s="15" t="s">
+      <c r="C112" s="81"/>
+      <c r="D112" s="81"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+    </row>
+    <row r="113" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B113" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C115" s="15" t="s">
+      <c r="C113" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D115" s="15" t="s">
+      <c r="D113" s="15" t="s">
         <v>58</v>
       </c>
+      <c r="G113" s="25"/>
+    </row>
+    <row r="114" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B114" s="10">
+        <v>1</v>
+      </c>
+      <c r="C114" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G114" s="25"/>
+    </row>
+    <row r="115" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B115" s="10">
+        <v>1</v>
+      </c>
+      <c r="C115" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="G115" s="25"/>
     </row>
-    <row r="116" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B116" s="10">
         <v>1</v>
       </c>
       <c r="C116" s="62" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G116" s="25"/>
     </row>
-    <row r="117" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B117" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117" s="62" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="G117" s="25"/>
     </row>
-    <row r="118" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B118" s="10">
         <v>1</v>
       </c>
       <c r="C118" s="62" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>64</v>
+        <v>236</v>
       </c>
       <c r="G118" s="25"/>
     </row>
-    <row r="119" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B119" s="10">
+        <v>1</v>
+      </c>
+      <c r="C119" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G119" s="25"/>
+    </row>
+    <row r="120" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B120" s="10">
+        <v>1</v>
+      </c>
+      <c r="C120" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="G120" s="25"/>
+    </row>
+    <row r="121" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B121" s="10">
         <v>2</v>
       </c>
-      <c r="C119" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G119" s="25"/>
-    </row>
-    <row r="120" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B120" s="10">
-        <v>1</v>
-      </c>
-      <c r="C120" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G120" s="25"/>
-    </row>
-    <row r="121" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B121" s="10">
-        <v>1</v>
-      </c>
-      <c r="C121" s="63" t="s">
-        <v>253</v>
+      <c r="C121" s="62" t="s">
+        <v>129</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G121" s="25"/>
     </row>
-    <row r="122" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B122" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C122" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>254</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D122" s="10"/>
       <c r="G122" s="25"/>
     </row>
-    <row r="123" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B123" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123" s="62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G123" s="25"/>
     </row>
-    <row r="124" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B124" s="10">
         <v>2</v>
       </c>
       <c r="C124" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="D124" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="G124" s="25"/>
     </row>
-    <row r="125" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B125" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C125" s="62" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G125" s="25"/>
     </row>
-    <row r="126" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B126" s="10">
+        <v>1</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D126" s="10"/>
+      <c r="G126" s="25"/>
+    </row>
+    <row r="127" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B127" s="15">
+        <v>17</v>
+      </c>
+      <c r="C127" s="62"/>
+      <c r="D127" s="10"/>
+      <c r="G127" s="25"/>
+    </row>
+    <row r="128" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B128" s="10">
+        <v>1</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G128" s="25"/>
+    </row>
+    <row r="129" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B129" s="10">
+        <v>1</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G129" s="25"/>
+    </row>
+    <row r="130" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B130" s="10">
+        <v>1</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G130" s="25"/>
+    </row>
+    <row r="131" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B131" s="10">
+        <v>1</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G131" s="25"/>
+    </row>
+    <row r="132" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B132" s="10">
+        <v>1</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G132" s="25"/>
+    </row>
+    <row r="133" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B133" s="10">
+        <v>1</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G133" s="25"/>
+    </row>
+    <row r="134" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B134" s="10">
+        <v>1</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G134" s="25"/>
+    </row>
+    <row r="135" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B135" s="10">
+        <v>1</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G135" s="25"/>
+    </row>
+    <row r="136" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B136" s="10">
+        <v>1</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G136" s="25"/>
+    </row>
+    <row r="137" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B137" s="10">
+        <v>1</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G137" s="25"/>
+    </row>
+    <row r="138" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B138" s="10">
+        <v>1</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G138" s="25"/>
+    </row>
+    <row r="139" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B139" s="10">
+        <v>1</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G139" s="25"/>
+    </row>
+    <row r="140" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B140" s="10">
+        <v>1</v>
+      </c>
+      <c r="C140" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G140" s="25"/>
+    </row>
+    <row r="141" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B141" s="10">
+        <v>1</v>
+      </c>
+      <c r="C141" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G141" s="25"/>
+    </row>
+    <row r="142" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B142" s="10"/>
+      <c r="C142" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="D142" s="10"/>
+      <c r="G142" s="26"/>
+    </row>
+    <row r="143" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B143" s="10">
         <v>2</v>
       </c>
-      <c r="C126" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G126" s="25"/>
-    </row>
-    <row r="127" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B127" s="10">
+      <c r="C143" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G143" s="26"/>
+    </row>
+    <row r="144" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B144" s="10">
         <v>2</v>
       </c>
-      <c r="C127" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G127" s="25"/>
-    </row>
-    <row r="128" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B128" s="10">
-        <v>1</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D128" s="10"/>
-      <c r="G128" s="25"/>
-    </row>
-    <row r="129" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B129" s="15">
-        <v>17</v>
-      </c>
-      <c r="C129" s="62"/>
-      <c r="D129" s="10"/>
-      <c r="G129" s="25"/>
-    </row>
-    <row r="130" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B130" s="10">
-        <v>1</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G130" s="25"/>
-    </row>
-    <row r="131" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B131" s="10">
-        <v>1</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G131" s="25"/>
-    </row>
-    <row r="132" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B132" s="10">
-        <v>1</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G132" s="25"/>
-    </row>
-    <row r="133" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B133" s="10">
-        <v>1</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G133" s="25"/>
-    </row>
-    <row r="134" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B134" s="10">
-        <v>1</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G134" s="25"/>
-    </row>
-    <row r="135" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B135" s="10">
-        <v>1</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G135" s="25"/>
-    </row>
-    <row r="136" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B136" s="10">
-        <v>1</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G136" s="25"/>
-    </row>
-    <row r="137" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B137" s="10">
-        <v>1</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G137" s="25"/>
-    </row>
-    <row r="138" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B138" s="10">
-        <v>1</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G138" s="25"/>
-    </row>
-    <row r="139" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B139" s="10">
-        <v>1</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G139" s="25"/>
-    </row>
-    <row r="140" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B140" s="10">
-        <v>1</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G140" s="25"/>
-    </row>
-    <row r="141" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B141" s="10">
-        <v>1</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G141" s="25"/>
-    </row>
-    <row r="142" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B142" s="10">
-        <v>1</v>
-      </c>
-      <c r="C142" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="D142" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G142" s="25"/>
-    </row>
-    <row r="143" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B143" s="10">
-        <v>1</v>
-      </c>
-      <c r="C143" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G143" s="25"/>
-    </row>
-    <row r="144" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B144" s="10"/>
-      <c r="C144" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="D144" s="10"/>
+      <c r="C144" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="G144" s="26"/>
     </row>
-    <row r="145" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B145" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G145" s="26"/>
     </row>
-    <row r="146" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B146" s="10">
-        <v>2</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G146" s="26"/>
-    </row>
-    <row r="147" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B147" s="10">
-        <v>1</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G147" s="26"/>
-    </row>
-    <row r="148" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B148" s="15">
-        <f>SUM(B130:B147)</f>
+    <row r="146" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B146" s="15">
+        <f>SUM(B128:B145)</f>
         <v>19</v>
       </c>
-      <c r="C148" s="7"/>
-      <c r="D148" s="16"/>
-    </row>
-    <row r="149" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B149" s="22"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="16"/>
+    </row>
+    <row r="147" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B147" s="22"/>
+      <c r="E147" s="22"/>
+    </row>
+    <row r="148" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B148" s="10"/>
+      <c r="C148" s="8"/>
+      <c r="E148" s="22"/>
+    </row>
+    <row r="149" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B149" s="10"/>
+      <c r="C149" s="8"/>
       <c r="E149" s="22"/>
     </row>
-    <row r="150" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B150" s="10"/>
       <c r="C150" s="8"/>
       <c r="E150" s="22"/>
     </row>
-    <row r="151" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B151" s="10"/>
       <c r="C151" s="8"/>
       <c r="E151" s="22"/>
     </row>
-    <row r="152" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B152" s="10"/>
       <c r="C152" s="8"/>
       <c r="E152" s="22"/>
     </row>
-    <row r="153" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B153" s="10"/>
       <c r="C153" s="8"/>
       <c r="E153" s="22"/>
     </row>
-    <row r="154" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B154" s="10"/>
-      <c r="C154" s="8"/>
+    <row r="154" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B154" s="22"/>
       <c r="E154" s="22"/>
     </row>
-    <row r="155" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B155" s="10"/>
-      <c r="C155" s="8"/>
+    <row r="155" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B155" s="22"/>
       <c r="E155" s="22"/>
     </row>
-    <row r="156" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B156" s="22"/>
-      <c r="E156" s="22"/>
-    </row>
-    <row r="157" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B157" s="22"/>
+    <row r="156" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A156" s="33"/>
+      <c r="B156" s="70" t="s">
+        <v>268</v>
+      </c>
+      <c r="C156" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="D156"/>
+      <c r="E156" s="35"/>
+    </row>
+    <row r="157" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A157" s="33"/>
+      <c r="B157" s="72"/>
+      <c r="C157" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="D157"/>
       <c r="E157" s="22"/>
     </row>
-    <row r="158" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="33"/>
-      <c r="B158" s="70" t="s">
-        <v>270</v>
-      </c>
+      <c r="B158" s="72"/>
       <c r="C158" s="71" t="s">
         <v>271</v>
       </c>
       <c r="D158"/>
-      <c r="E158" s="35"/>
-    </row>
-    <row r="159" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="E158" s="22"/>
+    </row>
+    <row r="159" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="33"/>
       <c r="B159" s="72"/>
       <c r="C159" s="71" t="s">
-        <v>272</v>
+        <v>161</v>
       </c>
       <c r="D159"/>
       <c r="E159" s="22"/>
     </row>
-    <row r="160" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="33"/>
       <c r="B160" s="72"/>
       <c r="C160" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="D160"/>
-      <c r="E160" s="22"/>
-    </row>
-    <row r="161" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>162</v>
+      </c>
+      <c r="D160" s="66"/>
+      <c r="E160" s="19"/>
+    </row>
+    <row r="161" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="33"/>
       <c r="B161" s="72"/>
-      <c r="C161" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="D161"/>
+      <c r="C161" s="71"/>
       <c r="E161" s="22"/>
-    </row>
-    <row r="162" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="33"/>
-      <c r="B162" s="72"/>
-      <c r="C162" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="D162" s="66"/>
-      <c r="E162" s="19"/>
-    </row>
-    <row r="163" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="33"/>
-      <c r="B163" s="72"/>
-      <c r="C163" s="71"/>
+      <c r="F161" s="22"/>
+    </row>
+    <row r="162" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="14"/>
+      <c r="B162" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="C162" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="E162" s="22"/>
+      <c r="F162" s="22"/>
+    </row>
+    <row r="163" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="73"/>
+      <c r="C163" s="74" t="s">
+        <v>273</v>
+      </c>
       <c r="E163" s="22"/>
       <c r="F163" s="22"/>
     </row>
-    <row r="164" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A164" s="14"/>
-      <c r="B164" s="73" t="s">
-        <v>167</v>
-      </c>
+    <row r="164" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="73"/>
       <c r="C164" s="74" t="s">
         <v>274</v>
       </c>
+      <c r="D164" s="65"/>
       <c r="E164" s="22"/>
       <c r="F164" s="22"/>
     </row>
-    <row r="165" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B165" s="73"/>
-      <c r="C165" s="74" t="s">
-        <v>275</v>
-      </c>
+    <row r="165" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="67"/>
+      <c r="C165" s="68"/>
+      <c r="D165" s="65"/>
       <c r="E165" s="22"/>
       <c r="F165" s="22"/>
     </row>
-    <row r="166" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B166" s="73"/>
-      <c r="C166" s="74" t="s">
-        <v>276</v>
-      </c>
+    <row r="166" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="67"/>
+      <c r="C166" s="68"/>
       <c r="D166" s="65"/>
-      <c r="E166" s="22"/>
-      <c r="F166" s="22"/>
-    </row>
-    <row r="167" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="167" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="67"/>
       <c r="C167" s="68"/>
-      <c r="D167" s="65"/>
-      <c r="E167" s="22"/>
-      <c r="F167" s="22"/>
-    </row>
-    <row r="168" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B168" s="67"/>
-      <c r="C168" s="68"/>
+    </row>
+    <row r="168" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="22"/>
+      <c r="C168" s="22"/>
       <c r="D168" s="65"/>
     </row>
-    <row r="169" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B169" s="67"/>
-      <c r="C169" s="68"/>
-    </row>
-    <row r="170" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="22"/>
-      <c r="C170" s="22"/>
-      <c r="D170" s="65"/>
-    </row>
-    <row r="171" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="22"/>
-      <c r="C171" s="22"/>
-    </row>
-    <row r="172" spans="1:6" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B172" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C172" s="69"/>
-    </row>
-    <row r="173" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B173"/>
-      <c r="C173"/>
-    </row>
-    <row r="174" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B169" s="22"/>
+      <c r="C169" s="22"/>
+    </row>
+    <row r="170" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C170" s="69"/>
+    </row>
+    <row r="171" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171"/>
+      <c r="C171"/>
+    </row>
+    <row r="172" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172"/>
+      <c r="C172"/>
+    </row>
+    <row r="173" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C173" s="69"/>
+    </row>
+    <row r="174" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174"/>
       <c r="C174"/>
     </row>
-    <row r="175" spans="1:6" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B175" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C175" s="69"/>
-    </row>
-    <row r="176" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175"/>
+      <c r="C175"/>
+    </row>
+    <row r="176" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176"/>
       <c r="C176"/>
     </row>
-    <row r="177" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177"/>
       <c r="C177"/>
     </row>
-    <row r="178" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B178"/>
-      <c r="C178"/>
-    </row>
-    <row r="179" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C178" s="69"/>
+    </row>
+    <row r="179" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179"/>
       <c r="C179"/>
     </row>
-    <row r="180" spans="2:3" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B180" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C180" s="69"/>
-    </row>
-    <row r="181" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B181"/>
-      <c r="C181"/>
-    </row>
-    <row r="182" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180"/>
+      <c r="C180"/>
+    </row>
+    <row r="181" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C181" s="69"/>
+    </row>
+    <row r="182" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182"/>
       <c r="C182"/>
     </row>
-    <row r="183" spans="2:3" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B183" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C183" s="69"/>
-    </row>
-    <row r="184" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B184"/>
-      <c r="C184"/>
-    </row>
-    <row r="185" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B185"/>
-      <c r="C185"/>
-    </row>
-    <row r="186" spans="2:3" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B186" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C186" s="69"/>
+    <row r="183" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183"/>
+      <c r="C183"/>
+    </row>
+    <row r="184" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C184" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B111:D111"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:E2"/>

--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NAC5-ARIX RADIO DISTAL #1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NAC5-ARIX RADIO DISTAL #1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30EFB93-1BA3-4291-84D1-6B31C9A64642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79E9BB1-6C98-4EF5-9507-5B22520683CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12150" yWindow="165" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INQUIORT" sheetId="4" r:id="rId1"/>
@@ -1119,11 +1119,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1544,21 +1544,21 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1580,8 +1580,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1610,11 +1610,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1660,7 +1660,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -1743,7 +1743,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1755,10 +1755,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2184,8 +2184,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
